--- a/EyeGaze/SubjData/P36C4.xlsx
+++ b/EyeGaze/SubjData/P36C4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="200" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Onset_Offset" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="Coding_Practice_1" localSheetId="1">Tracking!#REF!</definedName>
     <definedName name="JC_23_on_offset" localSheetId="0">Onset_Offset!$D$2:$D$17</definedName>
     <definedName name="MM_4_reliability" localSheetId="1">Tracking!#REF!</definedName>
-    <definedName name="P36C4" localSheetId="1">Tracking!$F$2:$G$137</definedName>
+    <definedName name="P36C4" localSheetId="1">Tracking!$F$2:$G$136</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="199">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -400,9 +400,6 @@
   </si>
   <si>
     <t>4B.S.OFFSET</t>
-  </si>
-  <si>
-    <t>00:09:10:17</t>
   </si>
   <si>
     <t>00:09:18:01</t>
@@ -679,7 +676,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1127,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:XFD80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1165,10 +1161,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1179,10 +1175,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" t="s">
-        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1193,10 +1189,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
         <v>183</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1207,10 +1203,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
         <v>183</v>
-      </c>
-      <c r="B5" t="s">
-        <v>184</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1221,10 +1217,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
         <v>183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1235,10 +1231,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
         <v>183</v>
-      </c>
-      <c r="B7" t="s">
-        <v>184</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1249,10 +1245,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
         <v>183</v>
-      </c>
-      <c r="B8" t="s">
-        <v>184</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1263,10 +1259,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" t="s">
         <v>183</v>
-      </c>
-      <c r="B9" t="s">
-        <v>184</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1277,10 +1273,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
         <v>183</v>
-      </c>
-      <c r="B10" t="s">
-        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1291,10 +1287,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1305,10 +1301,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1319,10 +1315,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1333,10 +1329,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1347,10 +1343,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1361,10 +1357,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1375,10 +1371,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
@@ -1389,10 +1385,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1403,10 +1399,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1417,10 +1413,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1431,10 +1427,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1445,10 +1441,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1459,10 +1455,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -1473,10 +1469,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1487,10 +1483,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1501,10 +1497,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1515,10 +1511,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
@@ -1529,10 +1525,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
         <v>45</v>
@@ -1543,10 +1539,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
         <v>47</v>
@@ -1557,10 +1553,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -1571,10 +1567,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1585,10 +1581,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -1599,10 +1595,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1613,10 +1609,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -1627,10 +1623,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -1641,10 +1637,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1655,10 +1651,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -1669,10 +1665,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" t="s">
         <v>57</v>
@@ -1683,10 +1679,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -1697,10 +1693,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
@@ -1711,10 +1707,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
@@ -1725,10 +1721,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
         <v>47</v>
@@ -1739,10 +1735,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -1753,10 +1749,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -1767,10 +1763,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
@@ -1781,10 +1777,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
         <v>47</v>
@@ -1795,10 +1791,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -1809,10 +1805,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
         <v>70</v>
@@ -1823,10 +1819,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
@@ -1837,10 +1833,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
@@ -1851,10 +1847,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -1865,10 +1861,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
         <v>26</v>
@@ -1879,10 +1875,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
         <v>77</v>
@@ -1893,10 +1889,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -1907,10 +1903,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
         <v>79</v>
@@ -1921,10 +1917,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
         <v>81</v>
@@ -1935,10 +1931,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
         <v>73</v>
@@ -1949,10 +1945,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
@@ -1963,10 +1959,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
         <v>47</v>
@@ -1977,10 +1973,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -1991,10 +1987,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
@@ -2005,10 +2001,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -2019,10 +2015,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
         <v>89</v>
@@ -2033,10 +2029,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
         <v>91</v>
@@ -2047,10 +2043,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -2061,10 +2057,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
         <v>94</v>
@@ -2075,10 +2071,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
         <v>26</v>
@@ -2089,10 +2085,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
         <v>26</v>
@@ -2103,10 +2099,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
         <v>97</v>
@@ -2117,10 +2113,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
         <v>99</v>
@@ -2131,10 +2127,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
@@ -2145,10 +2141,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -2159,10 +2155,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
@@ -2173,10 +2169,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
         <v>104</v>
@@ -2187,10 +2183,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C75" t="s">
         <v>73</v>
@@ -2201,10 +2197,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2215,10 +2211,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
         <v>108</v>
@@ -2229,10 +2225,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2243,10 +2239,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C79" t="s">
         <v>110</v>
@@ -2257,13 +2253,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="F80" t="s">
         <v>111</v>
@@ -2271,27 +2267,27 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" t="s">
         <v>113</v>
-      </c>
-      <c r="F81" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
         <v>114</v>
@@ -2299,13 +2295,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F83" t="s">
         <v>115</v>
@@ -2313,13 +2309,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
         <v>116</v>
@@ -2327,13 +2323,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F85" t="s">
         <v>117</v>
@@ -2341,69 +2337,69 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
         <v>119</v>
-      </c>
-      <c r="F86" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" t="s">
         <v>121</v>
-      </c>
-      <c r="F88" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
         <v>123</v>
-      </c>
-      <c r="F89" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
         <v>124</v>
@@ -2411,13 +2407,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
         <v>125</v>
@@ -2425,13 +2421,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F92" t="s">
         <v>126</v>
@@ -2439,13 +2435,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
         <v>127</v>
@@ -2453,13 +2449,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F94" t="s">
         <v>128</v>
@@ -2467,13 +2463,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
         <v>129</v>
@@ -2481,13 +2477,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
         <v>130</v>
@@ -2495,13 +2491,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
         <v>131</v>
@@ -2509,13 +2505,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="F98" t="s">
         <v>132</v>
@@ -2523,69 +2519,69 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" t="s">
         <v>134</v>
-      </c>
-      <c r="F99" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C100" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C101" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" t="s">
         <v>136</v>
-      </c>
-      <c r="F101" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" t="s">
         <v>138</v>
-      </c>
-      <c r="F102" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C103" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
         <v>139</v>
@@ -2593,13 +2589,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
         <v>140</v>
@@ -2607,13 +2603,13 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F105" t="s">
         <v>141</v>
@@ -2621,13 +2617,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="F106" t="s">
         <v>142</v>
@@ -2635,69 +2631,69 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" t="s">
         <v>144</v>
-      </c>
-      <c r="F107" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
+        <v>147</v>
+      </c>
+      <c r="F109" t="s">
         <v>146</v>
-      </c>
-      <c r="F109" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
         <v>148</v>
-      </c>
-      <c r="F110" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F111" t="s">
         <v>149</v>
@@ -2705,24 +2701,24 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
         <v>151</v>
-      </c>
-      <c r="F112" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
         <v>11</v>
@@ -2733,55 +2729,55 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C115" t="s">
+        <v>155</v>
+      </c>
+      <c r="F115" t="s">
         <v>154</v>
-      </c>
-      <c r="F115" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" t="s">
         <v>156</v>
-      </c>
-      <c r="F116" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
         <v>157</v>
@@ -2789,13 +2785,13 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="F118" t="s">
         <v>158</v>
@@ -2803,24 +2799,24 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
         <v>160</v>
-      </c>
-      <c r="F119" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -2831,55 +2827,55 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
         <v>198</v>
       </c>
       <c r="C122" t="s">
+        <v>164</v>
+      </c>
+      <c r="F122" t="s">
         <v>163</v>
-      </c>
-      <c r="F122" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123" t="s">
         <v>165</v>
-      </c>
-      <c r="F123" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C124" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
         <v>166</v>
@@ -2887,13 +2883,13 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F125" t="s">
         <v>167</v>
@@ -2901,24 +2897,24 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" t="s">
         <v>169</v>
-      </c>
-      <c r="F126" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C127" t="s">
         <v>47</v>
@@ -2929,55 +2925,55 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="F128" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
+        <v>173</v>
+      </c>
+      <c r="F129" t="s">
         <v>172</v>
-      </c>
-      <c r="F129" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
         <v>174</v>
-      </c>
-      <c r="F130" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F131" t="s">
         <v>175</v>
@@ -2985,13 +2981,13 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="F132" t="s">
         <v>176</v>
@@ -2999,13 +2995,13 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="F133" t="s">
         <v>177</v>
@@ -3013,24 +3009,24 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C134" t="s">
+        <v>104</v>
+      </c>
+      <c r="F134" t="s">
         <v>179</v>
-      </c>
-      <c r="F134" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C135" t="s">
         <v>104</v>
@@ -3041,30 +3037,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C136" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="F136" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>183</v>
-      </c>
-      <c r="B137" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" t="s">
-        <v>182</v>
-      </c>
-      <c r="F137" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
